--- a/list_7.xlsx
+++ b/list_7.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3508,11 +3508,21 @@
       <c r="C118" t="n">
         <v>43668</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>29135091</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>56784292359</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -3522,13 +3532,29 @@
         <v>1955</v>
       </c>
       <c r="C119" t="n">
-        <v>56462</v>
+        <v>56463</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C120" t="n">
+        <v>76365</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3541,7 +3567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6617,11 +6643,21 @@
       <c r="C118" t="n">
         <v>527902</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>262691</v>
+      </c>
+      <c r="E118" t="n">
+        <v>47816422</v>
+      </c>
+      <c r="F118" t="n">
+        <v>883955215</v>
+      </c>
+      <c r="G118" t="n">
+        <v>160902260030</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.550000011920929</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6631,13 +6667,29 @@
         <v>3410</v>
       </c>
       <c r="C119" t="n">
-        <v>254643</v>
+        <v>260318</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>3375</v>
+      </c>
+      <c r="C120" t="n">
+        <v>287284</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6650,7 +6702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9726,11 +9778,21 @@
       <c r="C118" t="n">
         <v>44375</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>18955</v>
+      </c>
+      <c r="E118" t="n">
+        <v>12578946</v>
+      </c>
+      <c r="F118" t="n">
+        <v>164718950</v>
+      </c>
+      <c r="G118" t="n">
+        <v>109311040740</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.1500000059604645</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -9740,13 +9802,29 @@
         <v>8390</v>
       </c>
       <c r="C119" t="n">
-        <v>71403</v>
+        <v>71907</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>8080</v>
+      </c>
+      <c r="C120" t="n">
+        <v>204274</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9759,7 +9837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12835,11 +12913,21 @@
       <c r="C118" t="n">
         <v>1090559</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>133853</v>
+      </c>
+      <c r="E118" t="n">
+        <v>70922823</v>
+      </c>
+      <c r="F118" t="n">
+        <v>192748320</v>
+      </c>
+      <c r="G118" t="n">
+        <v>102128865120</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.1899999976158142</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -12849,7 +12937,7 @@
         <v>1382</v>
       </c>
       <c r="C119" t="n">
-        <v>1010561</v>
+        <v>1010595</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
@@ -12857,6 +12945,22 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
     </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1408</v>
+      </c>
+      <c r="C120" t="n">
+        <v>517579</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_7.xlsx
+++ b/list_7.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5562,11 +5562,21 @@
       <c r="C197" t="n">
         <v>45954</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>29135091</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>57570939816</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -5576,13 +5586,29 @@
         <v>1973</v>
       </c>
       <c r="C198" t="n">
-        <v>56882</v>
+        <v>57382</v>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C199" t="n">
+        <v>99931</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5595,7 +5621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10725,11 +10751,21 @@
       <c r="C197" t="n">
         <v>1136057</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>423125</v>
+      </c>
+      <c r="E197" t="n">
+        <v>47816422</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1480937500</v>
+      </c>
+      <c r="G197" t="n">
+        <v>167357477000</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.8799999952316284</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10739,13 +10775,29 @@
         <v>3450</v>
       </c>
       <c r="C198" t="n">
-        <v>536564</v>
+        <v>537638</v>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>3490</v>
+      </c>
+      <c r="C199" t="n">
+        <v>425868</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10758,7 +10810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15888,11 +15940,21 @@
       <c r="C197" t="n">
         <v>28878</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>18956</v>
+      </c>
+      <c r="E197" t="n">
+        <v>12578946</v>
+      </c>
+      <c r="F197" t="n">
+        <v>159799080</v>
+      </c>
+      <c r="G197" t="n">
+        <v>106040514780</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.1500000059604645</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -15902,13 +15964,29 @@
         <v>8320</v>
       </c>
       <c r="C198" t="n">
-        <v>38001</v>
+        <v>38264</v>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>8450</v>
+      </c>
+      <c r="C199" t="n">
+        <v>69995</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15921,7 +15999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21051,11 +21129,21 @@
       <c r="C197" t="n">
         <v>4824686</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>179846</v>
+      </c>
+      <c r="E197" t="n">
+        <v>70922823</v>
+      </c>
+      <c r="F197" t="n">
+        <v>306997122</v>
+      </c>
+      <c r="G197" t="n">
+        <v>121065258861</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -21065,7 +21153,7 @@
         <v>1779</v>
       </c>
       <c r="C198" t="n">
-        <v>1885046</v>
+        <v>1887109</v>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
@@ -21073,6 +21161,22 @@
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
     </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1879</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2156703</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_7.xlsx
+++ b/list_7.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5588,11 +5588,21 @@
       <c r="C198" t="n">
         <v>57382</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>29135091</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0</v>
+      </c>
+      <c r="G198" t="n">
+        <v>57483534543</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -5602,13 +5612,29 @@
         <v>1986</v>
       </c>
       <c r="C199" t="n">
-        <v>99931</v>
+        <v>100186</v>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C200" t="n">
+        <v>17967</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5621,7 +5647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10777,11 +10803,21 @@
       <c r="C198" t="n">
         <v>537638</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>471998</v>
+      </c>
+      <c r="E198" t="n">
+        <v>47816422</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1628393100</v>
+      </c>
+      <c r="G198" t="n">
+        <v>164966655900</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.9900000095367432</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -10791,13 +10827,29 @@
         <v>3490</v>
       </c>
       <c r="C199" t="n">
-        <v>425868</v>
+        <v>430627</v>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>3460</v>
+      </c>
+      <c r="C200" t="n">
+        <v>338894</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10810,7 +10862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15966,11 +16018,21 @@
       <c r="C198" t="n">
         <v>38264</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>18956</v>
+      </c>
+      <c r="E198" t="n">
+        <v>12578946</v>
+      </c>
+      <c r="F198" t="n">
+        <v>157713920</v>
+      </c>
+      <c r="G198" t="n">
+        <v>104656830720</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.1500000059604645</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -15980,13 +16042,29 @@
         <v>8450</v>
       </c>
       <c r="C199" t="n">
-        <v>69995</v>
+        <v>70066</v>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>8600</v>
+      </c>
+      <c r="C200" t="n">
+        <v>54750</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15999,7 +16077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21155,11 +21233,21 @@
       <c r="C198" t="n">
         <v>1887109</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>137798</v>
+      </c>
+      <c r="E198" t="n">
+        <v>70922823</v>
+      </c>
+      <c r="F198" t="n">
+        <v>245142642</v>
+      </c>
+      <c r="G198" t="n">
+        <v>126171702117</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.1899999976158142</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -21169,7 +21257,7 @@
         <v>1879</v>
       </c>
       <c r="C199" t="n">
-        <v>2156703</v>
+        <v>2163158</v>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
@@ -21177,6 +21265,22 @@
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
     </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1887</v>
+      </c>
+      <c r="C200" t="n">
+        <v>641656</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_7.xlsx
+++ b/list_7.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5614,11 +5614,21 @@
       <c r="C199" t="n">
         <v>100186</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>29135091</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="n">
+        <v>57862290726</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -5635,6 +5645,22 @@
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C201" t="n">
+        <v>51423</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5647,7 +5673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10829,11 +10855,21 @@
       <c r="C199" t="n">
         <v>430627</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>468946</v>
+      </c>
+      <c r="E199" t="n">
+        <v>47816422</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1636621540</v>
+      </c>
+      <c r="G199" t="n">
+        <v>166879312780</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.9800000190734863</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10843,13 +10879,29 @@
         <v>3460</v>
       </c>
       <c r="C200" t="n">
-        <v>338894</v>
+        <v>341113</v>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>3480</v>
+      </c>
+      <c r="C201" t="n">
+        <v>357074</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10862,7 +10914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16044,11 +16096,21 @@
       <c r="C199" t="n">
         <v>70066</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>18956</v>
+      </c>
+      <c r="E199" t="n">
+        <v>12578946</v>
+      </c>
+      <c r="F199" t="n">
+        <v>160178200</v>
+      </c>
+      <c r="G199" t="n">
+        <v>106292093700</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.1500000059604645</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -16058,13 +16120,29 @@
         <v>8600</v>
       </c>
       <c r="C200" t="n">
-        <v>54750</v>
+        <v>54779</v>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>8590</v>
+      </c>
+      <c r="C201" t="n">
+        <v>35421</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16077,7 +16155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21259,11 +21337,21 @@
       <c r="C199" t="n">
         <v>2163158</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>137584</v>
+      </c>
+      <c r="E199" t="n">
+        <v>70922823</v>
+      </c>
+      <c r="F199" t="n">
+        <v>258520336</v>
+      </c>
+      <c r="G199" t="n">
+        <v>133263984417</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.1899999976158142</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -21273,7 +21361,7 @@
         <v>1887</v>
       </c>
       <c r="C200" t="n">
-        <v>641656</v>
+        <v>643157</v>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
@@ -21281,6 +21369,22 @@
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
     </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1896</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1499157</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
